--- a/src/main/webapp/WEB-INF/dataBaseFile/mariadb/mariadb_Create.xlsx
+++ b/src/main/webapp/WEB-INF/dataBaseFile/mariadb/mariadb_Create.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CREATE TABLE `cucuif` (
  `CUS_ID` VARCHAR(20) NOT NULL COMMENT '고객_아이디' COLLATE 'utf8_general_ci',
@@ -27,6 +26,18 @@
 )
 COLLATE='utf8_bin'
 ENGINE=InnoDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cucuif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cucocd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumnif</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -43,11 +54,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cucuif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cucocd</t>
+    <t>CREATE TABLE `CUMNIF` (
+ `MENU_ID` VARCHAR(6) NOT NULL COMMENT '메뉴_아이디' COLLATE 'utf8_general_ci',
+ `MENU_PG_ID` VARCHAR(8) NOT NULL COMMENT '코드_이름'  COLLATE 'utf8_general_ci',
+ `MENU_PG_NM` VARCHAR(200) NOT NULL  COMMENT '메뉴_페이지_이름' COLLATE 'utf8_general_ci',
+ `MENU_PG_URL` VARCHAR(200) NULL COMMENT '메뉴_페이지_경로' DEFAULT NULL COLLATE 'utf8_general_ci',
+ PRIMARY KEY (`MENU_ID`)
+)
+COLLATE='utf8_bin'
+ENGINE=InnoDB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -415,7 +430,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -423,10 +438,18 @@
     </row>
     <row r="2" spans="1:2" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
